--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(〇〇画面).xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(〇〇画面).xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\java研修\演習2\要件定義書\1.ショッピングサイト\04_外部仕様書\画面設計\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\worktime\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B082BBD4-4091-46B1-9FF7-4517D324EB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
     <sheet name="〇〇画面" sheetId="2" r:id="rId2"/>
+    <sheet name="共通頁" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇画面!$A$1:$M$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,6 +287,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,15 +304,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,8 +348,8 @@
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -364,7 +364,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1046"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1047"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -379,7 +379,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -923,6 +923,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1666875"/>
+          <a:ext cx="6677025" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1219,21 +1268,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1299,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1261,294 +1310,264 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1556,6 +1575,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1564,19 +1613,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1584,4 +1633,20 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(〇〇画面).xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(〇〇画面).xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\worktime\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\戦略研修\0220アプリ開発演習\SourceTree\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
     <sheet name="〇〇画面" sheetId="2" r:id="rId2"/>
     <sheet name="共通頁" sheetId="3" r:id="rId3"/>
+    <sheet name="勤怠登録画面" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇画面!$A$1:$M$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">勤怠登録画面!$A$1:$Q$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -287,6 +289,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,15 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,7 +366,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1047"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1049"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -972,6 +974,433 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="図 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC05D8-B0F5-4F23-9DD9-038185BD9BE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="1905"/>
+              <a:ext cx="6115050" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>173844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="1552575"/>
+          <a:ext cx="7772400" cy="9803619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533399" y="1019175"/>
+          <a:ext cx="7762875" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="1057275"/>
+          <a:ext cx="1485900" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>メニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="1247775"/>
+          <a:ext cx="1409700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>000000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="1238250"/>
+          <a:ext cx="819150" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>申請登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="1228725"/>
+          <a:ext cx="971550" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1319,255 +1748,285 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1575,36 +2034,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1616,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1649,4 +2078,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(〇〇画面).xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(〇〇画面).xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\戦略研修\0220アプリ開発演習\SourceTree\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AttendanceManagementDoc\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="3"/>
+    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
     <sheet name="〇〇画面" sheetId="2" r:id="rId2"/>
     <sheet name="共通頁" sheetId="3" r:id="rId3"/>
     <sheet name="勤怠登録画面" sheetId="4" r:id="rId4"/>
+    <sheet name="申請一覧画面2022年" sheetId="5" r:id="rId5"/>
+    <sheet name="申請一覧画面2023年" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇画面!$A$1:$M$26</definedName>
@@ -289,6 +291,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -297,15 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,7 +368,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1049"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1051"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1004,7 +1006,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s3074"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s3076"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1401,6 +1403,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="476250"/>
+          <a:ext cx="6391275" cy="6391275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="257175"/>
+          <a:ext cx="5819775" cy="5819775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1748,285 +1848,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -2034,6 +2104,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2084,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -2103,4 +2203,36 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>